--- a/Documents/Decision Tree/Decision Tree.xlsx
+++ b/Documents/Decision Tree/Decision Tree.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="690" windowWidth="18675" windowHeight="11250" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="690" windowWidth="18675" windowHeight="11250" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Programmer(1)" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
   <si>
     <t>Value Measure</t>
   </si>
@@ -225,6 +225,30 @@
   <si>
     <t>Specifying</t>
   </si>
+  <si>
+    <t>Autonomy</t>
+  </si>
+  <si>
+    <t>Codification</t>
+  </si>
+  <si>
+    <t>Partial, check Focus Mode</t>
+  </si>
+  <si>
+    <t>Full Autonomy, determine Focus Mode by project's state</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Aid, check which one will lend aid</t>
+  </si>
 </sst>
 </file>
 
@@ -18682,6 +18706,2286 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Root "/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="520700" y="857250"/>
+          <a:ext cx="88900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TrNd "/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="9999FF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Branch 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="857250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Branch 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="1619250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TrNd 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="762000"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="9999FF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Branch 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="857250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Branch 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="1619250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TrNd 11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="762000"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="9999FF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Branch 111"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="857250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Leaf 111"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="785812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Branch 112"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="1619250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Leaf 112"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="1547812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Branch 113"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="2381250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Leaf 113"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="2309812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Branch 114"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="3143250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Leaf 114"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="3071812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="FBranch 111"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4276725" y="857250"/>
+          <a:ext cx="247650" cy="1128712"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="FBranch 112"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4276725" y="1619250"/>
+          <a:ext cx="247650" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="FBranch 113"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="1985962"/>
+          <a:ext cx="247650" cy="395288"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="FBranch 114"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="1985962"/>
+          <a:ext cx="247650" cy="1157288"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TrNd 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3810000"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="9999FF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Branch 121"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="3905250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Leaf 121"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="3833812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Branch 122"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="4667250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Leaf 122"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="4595812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Branch 123"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="5429250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Leaf 123"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="5357812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Branch 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="6191250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Leaf 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="6119812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="FBranch 121"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4276725" y="3905250"/>
+          <a:ext cx="247650" cy="1128712"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="FBranch 122"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4276725" y="4667250"/>
+          <a:ext cx="247650" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="FBranch 123"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="5033962"/>
+          <a:ext cx="247650" cy="395288"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="FBranch 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="5033962"/>
+          <a:ext cx="247650" cy="1157288"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="FBranch 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2524125" y="2000250"/>
+          <a:ext cx="247650" cy="1509712"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="FBranch 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="3509962"/>
+          <a:ext cx="247650" cy="1538288"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="TrNd 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="6858000"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="9999FF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Branch 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="6953250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Leaf 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="6881812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Branch 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="7715250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Leaf 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="7643812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="XBranch 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="6953250"/>
+          <a:ext cx="1752600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="XBranch 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="7715250"/>
+          <a:ext cx="1752600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Branch 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="8477250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Leaf 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="8405812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="FBranch 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2524125" y="6953250"/>
+          <a:ext cx="247650" cy="747712"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="FBranch 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="7700962"/>
+          <a:ext cx="247650" cy="14288"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="FBranch 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="7700962"/>
+          <a:ext cx="247650" cy="776288"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="FBranch 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="771525" y="3524250"/>
+          <a:ext cx="247650" cy="2081212"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="FBranch 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="5605462"/>
+          <a:ext cx="247650" cy="2109788"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="XBranch 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="8477250"/>
+          <a:ext cx="1752600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22573,7 +24877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -23202,13 +25506,267 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" customWidth="1"/>
+    <col min="15" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:18">
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="9:18">
+      <c r="N4" s="3" t="str">
+        <f>IF($K$12=$R$5,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="9:18">
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="9:18">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="9:18">
+      <c r="N8" s="3" t="str">
+        <f>IF($K$12=$R$9,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="9:18">
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="9:18">
+      <c r="I10" s="3" t="str">
+        <f>IF($F$20=$K$12,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="9:18">
+      <c r="K12">
+        <f>MAX($R$5,$R$9,$R$13,$R$17)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="str">
+        <f>IF($K$12=$R$13,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="9:18">
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="9:18">
+      <c r="N16" s="3" t="str">
+        <f>IF($K$12=$R$17,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="D18" s="3" t="str">
+        <f>IF($A$31=$F$20,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="F20">
+        <f>MAX($K$12,$K$28)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="str">
+        <f>IF($K$28=$R$21,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="N24" s="3" t="str">
+        <f>IF($K$28=$R$25,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="I26" s="3" t="str">
+        <f>IF($F$20=$K$28,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="K28">
+        <f>MAX($R$21,$R$25,$R$29,$R$33)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="3" t="str">
+        <f>IF($K$28=$R$29,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <f>MAX($F$20,$F$42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="N32" s="3" t="str">
+        <f>IF($K$28=$R$33,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17">
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17">
+      <c r="I36" s="3" t="str">
+        <f>IF($F$42=$R$37,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17">
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17">
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="4:17">
+      <c r="D40" s="3" t="str">
+        <f>IF($A$31=$F$42,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f>IF($F$42=$R$41,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17">
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17">
+      <c r="F42">
+        <f>MAX($R$37,$R$41,$R$45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17">
+      <c r="I44" s="3" t="str">
+        <f>IF($F$42=$R$45,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17">
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documents/Decision Tree/Decision Tree.xlsx
+++ b/Documents/Decision Tree/Decision Tree.xlsx
@@ -6966,13 +6966,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7010,13 +7010,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7069,13 +7069,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7113,13 +7113,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7157,13 +7157,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7216,13 +7216,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7260,13 +7260,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7304,13 +7304,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7451,13 +7451,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7495,13 +7495,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7539,13 +7539,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7583,6 +7583,94 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Leaf 113"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="2309812"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Branch 114"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="3143250"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
@@ -7594,94 +7682,6 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Leaf 113"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="2309812"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Branch 114"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="3143250"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="Leaf 114"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
@@ -7721,7 +7721,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7759,13 +7759,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7803,13 +7803,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7847,13 +7847,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7891,13 +7891,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7950,13 +7950,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7994,13 +7994,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8038,13 +8038,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8082,13 +8082,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8126,13 +8126,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8170,13 +8170,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8214,13 +8214,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8258,13 +8258,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8302,13 +8302,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8346,13 +8346,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8390,13 +8390,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8434,13 +8434,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8478,13 +8478,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8522,13 +8522,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8566,13 +8566,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8625,13 +8625,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8669,13 +8669,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8713,13 +8713,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8757,13 +8757,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8801,13 +8801,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8845,13 +8845,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8889,13 +8889,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8933,13 +8933,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8977,13 +8977,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9021,13 +9021,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9065,13 +9065,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9109,13 +9109,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9153,13 +9153,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9197,13 +9197,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -23828,7 +23828,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23849,7 +23849,7 @@
     <col min="18" max="18" width="3.7109375" customWidth="1"/>
     <col min="19" max="19" width="4.7109375" customWidth="1"/>
     <col min="20" max="21" width="7.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24146,8 +24146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24168,7 +24168,7 @@
     <col min="18" max="18" width="3.7109375" customWidth="1"/>
     <col min="19" max="19" width="4.7109375" customWidth="1"/>
     <col min="20" max="21" width="7.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24466,10 +24466,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24486,11 +24486,11 @@
     <col min="13" max="13" width="3.7109375" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" customWidth="1"/>
     <col min="15" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:18">
+    <row r="1" spans="4:18">
       <c r="E1" s="19" t="s">
         <v>93</v>
       </c>
@@ -24501,228 +24501,215 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="5:18">
+    <row r="4" spans="4:18">
       <c r="N4" s="3" t="str">
-        <f>IF($K$12=$R$5,"&gt;&gt;&gt;","")</f>
+        <f>IF($K$10=$R$5,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="5:18">
+    <row r="5" spans="4:18">
       <c r="Q5" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="5:18">
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="5:18">
-      <c r="N8" s="3" t="str">
-        <f>IF($K$12=$R$9,"&gt;&gt;&gt;","")</f>
+    <row r="6" spans="4:18">
+      <c r="N6" s="3" t="str">
+        <f>IF($K$10=$R$7,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="5:18">
-      <c r="Q9" s="14" t="s">
+    <row r="7" spans="4:18">
+      <c r="Q7" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="5:18">
-      <c r="I10" s="3" t="str">
-        <f>IF($F$20=$K$12,"&gt;&gt;&gt;","")</f>
+    <row r="8" spans="4:18">
+      <c r="I8" s="3" t="str">
+        <f>IF($F$16=$K$10,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J8" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="5:18">
-      <c r="K12">
-        <f>MAX($R$5,$R$9,$R$13,$R$17)</f>
+    <row r="10" spans="4:18">
+      <c r="K10">
+        <f>MAX($R$5,$R$7,$R$11,$R$13)</f>
         <v>0</v>
       </c>
+      <c r="N10" s="3" t="str">
+        <f>IF($K$10=$R$11,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18">
+      <c r="Q11" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18">
       <c r="N12" s="3" t="str">
-        <f>IF($K$12=$R$13,"&gt;&gt;&gt;","")</f>
+        <f>IF($K$10=$R$13,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="5:18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18">
       <c r="Q13" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="5:18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18">
+      <c r="D14" s="3" t="str">
+        <f>IF($A$25=$F$16,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="4:18">
+      <c r="F16">
+        <f>MAX($K$10,$K$22)</f>
+        <v>0</v>
+      </c>
       <c r="N16" s="3" t="str">
-        <f>IF($K$12=$R$17,"&gt;&gt;&gt;","")</f>
+        <f>IF($K$22=$R$17,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="O16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
       <c r="Q17" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="N18" s="3" t="str">
+        <f>IF($K$22=$R$19,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="Q19" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="I20" s="3" t="str">
+        <f>IF($F$16=$K$22,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="K22">
+        <f>MAX($R$17,$R$19,$R$23,$R$26)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="str">
+        <f>IF($K$22=$R$23,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="Q23" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <f>MAX($F$16,$F$31)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="str">
+        <f>IF($K$22=$R$26,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="Q26" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="D18" s="3" t="str">
-        <f>IF($A$31=$F$20,"&gt;&gt;&gt;","")</f>
+    <row r="27" spans="1:17">
+      <c r="I27" s="3" t="str">
+        <f>IF($F$31=$R$28,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="F20">
-        <f>MAX($K$12,$K$28)</f>
+      <c r="J27" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="Q28" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="D29" s="3" t="str">
+        <f>IF($A$25=$F$31,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f>IF($F$31=$R$30,"&gt;&gt;&gt;","")</f>
+        <v>&gt;&gt;&gt;</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="Q30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="F31">
+        <f>MAX($R$28,$R$30,$R$32)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="str">
-        <f>IF($K$28=$R$21,"&gt;&gt;&gt;","")</f>
+      <c r="I31" s="3" t="str">
+        <f>IF($F$31=$R$32,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="Q21" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="N24" s="3" t="str">
-        <f>IF($K$28=$R$25,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="Q25" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="I26" s="3" t="str">
-        <f>IF($F$20=$K$28,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="K28">
-        <f>MAX($R$21,$R$25,$R$29,$R$33)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="str">
-        <f>IF($K$28=$R$29,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="Q29" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31">
-        <f>MAX($F$20,$F$42)</f>
-        <v>0</v>
+      <c r="J31" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="N32" s="3" t="str">
-        <f>IF($K$28=$R$33,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="4:17">
-      <c r="Q33" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="4:17">
-      <c r="I36" s="3" t="str">
-        <f>IF($F$42=$R$37,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="4:17">
-      <c r="Q37" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="4:17">
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="4:17">
-      <c r="D40" s="3" t="str">
-        <f>IF($A$31=$F$42,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="3" t="str">
-        <f>IF($F$42=$R$41,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="4:17">
-      <c r="Q41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="4:17">
-      <c r="F42">
-        <f>MAX($R$37,$R$41,$R$45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:17">
-      <c r="I44" s="3" t="str">
-        <f>IF($F$42=$R$45,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="4:17">
-      <c r="Q45" s="14" t="s">
+      <c r="Q32" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -24811,8 +24798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AK91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documents/Decision Tree/Decision Tree.xlsx
+++ b/Documents/Decision Tree/Decision Tree.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="690" windowWidth="18675" windowHeight="11250" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="690" windowWidth="18675" windowHeight="11250" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="21" r:id="rId1"/>
@@ -14,14 +14,13 @@
     <sheet name="Programmer(1)" sheetId="10" r:id="rId5"/>
     <sheet name="Programmer(2)" sheetId="6" r:id="rId6"/>
     <sheet name="Tester" sheetId="16" r:id="rId7"/>
-    <sheet name="Analyst_draft" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>Value Measure</t>
   </si>
@@ -95,25 +94,10 @@
     <t>&gt; 75 Good</t>
   </si>
   <si>
-    <t>Quality then Generate Tests Cases</t>
-  </si>
-  <si>
     <t>Elicitation</t>
   </si>
   <si>
-    <t>Req Reviews</t>
-  </si>
-  <si>
     <t>With Prototype</t>
-  </si>
-  <si>
-    <t>Validation (Report Bugs)</t>
-  </si>
-  <si>
-    <t>Bad: Discovery</t>
-  </si>
-  <si>
-    <t>Discovery</t>
   </si>
   <si>
     <t>Documentation</t>
@@ -182,15 +166,6 @@
     <t>Acceptance</t>
   </si>
   <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Test Cases</t>
-  </si>
-  <si>
-    <t>Bad then Discovery</t>
-  </si>
-  <si>
     <t>Especification</t>
   </si>
   <si>
@@ -219,9 +194,6 @@
   </si>
   <si>
     <t>Codification</t>
-  </si>
-  <si>
-    <t>Partial, check Focus Mode</t>
   </si>
   <si>
     <t>Full Autonomy, determine Focus Mode by project's state</t>
@@ -368,7 +340,25 @@
     <t>Green means external decision, made by the player</t>
   </si>
   <si>
-    <t>PS: This tree continue on the next sheet</t>
+    <t>PS: This tree continue on the next sheet, where both Envolve and Repair uses the same tree described on the next sheet</t>
+  </si>
+  <si>
+    <t>Partial, check current Focus Mode set by the player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX Mode represents the task the manager will employ. </t>
+  </si>
+  <si>
+    <t>Tasks and roles will be distributed according to the mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this moment, the decision to select tasks </t>
+  </si>
+  <si>
+    <t>and roles for each employee is invarient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to the manager's skill</t>
   </si>
 </sst>
 </file>
@@ -484,12 +474,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -20269,3226 +20258,6 @@
         <a:xfrm>
           <a:off x="771525" y="4843462"/>
           <a:ext cx="247650" cy="3443288"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Root "/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="520700" y="1809750"/>
-          <a:ext cx="88900" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TrNd "/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="1714500"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="9999FF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Branch 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="1809750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Branch 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="2571750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Leaf 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="5548312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TrNd 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2362200" y="1714500"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="008000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Branch 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2771775" y="1809750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Branch 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2771775" y="2571750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="XBranch 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2362200" y="5619750"/>
-          <a:ext cx="5257800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="FBranch 121"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4276725" y="2571750"/>
-          <a:ext cx="247650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Branch 121"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="2571750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Leaf 121"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="4024312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="FBranch 122"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4276725" y="2952750"/>
-          <a:ext cx="247650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Branch 122"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="3333750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Leaf 122"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="4786312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Branch 111"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="1809750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Branch 112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="2571750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Leaf 112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="3262312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="TrNd 11"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="2095500"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="9999FF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="TrNd 111"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="1714500"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="008000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="FBranch 111"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4276725" y="2190750"/>
-          <a:ext cx="247650" cy="557212"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="FBranch 112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4276725" y="2747962"/>
-          <a:ext cx="247650" cy="585788"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="FBranch 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2524125" y="2762250"/>
-          <a:ext cx="247650" cy="938212"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="FBranch 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2524125" y="3700462"/>
-          <a:ext cx="247650" cy="776288"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="FBranch 1111"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6029325" y="1809750"/>
-          <a:ext cx="247650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Branch 1111"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6276975" y="1809750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Leaf 1111"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="1738312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="FBranch 1112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6029325" y="2190750"/>
-          <a:ext cx="247650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Branch 1112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6276975" y="2571750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Leaf 1112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="2500312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="XBranch 121"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="4095750"/>
-          <a:ext cx="1752600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="XBranch 122"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="4857750"/>
-          <a:ext cx="1752600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="XBranch 112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="3333750"/>
-          <a:ext cx="1752600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="TrNd 12"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="4381500"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="9999FF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Branch 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="6381750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="TrNd 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2362200" y="6286500"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="008000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Branch 71"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2771775" y="6381750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Branch 72"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2771775" y="7143750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Branch 73"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2771775" y="7905750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Leaf 73"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="10120312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="XBranch 73"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="10191750"/>
-          <a:ext cx="3505200" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="TrNd 71"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="6286500"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="9999FF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Branch 711"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="6381750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="Branch 712"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="7143750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Leaf 712"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="7834312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="XBranch 712"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="7905750"/>
-          <a:ext cx="1752600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="TrNd 711"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="6286500"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="008000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="FBranch 711"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4276725" y="6762750"/>
-          <a:ext cx="247650" cy="557212"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="FBranch 712"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4276725" y="7319962"/>
-          <a:ext cx="247650" cy="585788"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="FBranch 7111"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6029325" y="6381750"/>
-          <a:ext cx="247650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="Branch 7111"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6276975" y="6381750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="Leaf 7111"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="6310312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="FBranch 7112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6029325" y="6762750"/>
-          <a:ext cx="247650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="Branch 7112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6276975" y="7143750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="Leaf 7112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="7072312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="TrNd 72"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="8572500"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="9999FF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="FBranch 71"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2524125" y="7334250"/>
-          <a:ext cx="247650" cy="1319212"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="FBranch 72"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2524125" y="8653462"/>
-          <a:ext cx="247650" cy="395288"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="FBranch 73"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2524125" y="8653462"/>
-          <a:ext cx="247650" cy="1538288"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="FBranch 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="771525" y="3714750"/>
-          <a:ext cx="247650" cy="2462212"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="FBranch 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="771525" y="5619750"/>
-          <a:ext cx="247650" cy="557212"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="FBranch 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="771525" y="6176962"/>
-          <a:ext cx="247650" cy="2490788"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="FBranch 721"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4276725" y="8667750"/>
-          <a:ext cx="247650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="Branch 721"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="8667750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="Leaf 721"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="8596312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="FBranch 722"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4276725" y="9048750"/>
-          <a:ext cx="247650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="Branch 722"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="9429750"/>
-          <a:ext cx="1343025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="Leaf 722"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="9358312"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="XBranch 721"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="8667750"/>
-          <a:ext cx="1752600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="XBranch 722"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="9429750"/>
-          <a:ext cx="1752600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -23809,12 +20578,12 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -23854,8 +20623,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:23">
-      <c r="D1" s="19" t="s">
-        <v>92</v>
+      <c r="D1" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
@@ -23865,30 +20634,30 @@
       </c>
     </row>
     <row r="2" spans="4:23">
-      <c r="D2" s="17" t="s">
-        <v>87</v>
+      <c r="D2" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="4:23">
       <c r="D3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="4:23">
       <c r="D4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>IF($F$8=$W$5,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="4:23">
-      <c r="V5" s="14" t="s">
-        <v>82</v>
+      <c r="V5" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="4:23">
@@ -23896,8 +20665,8 @@
         <f>IF($A$20=$F$8,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>57</v>
+      <c r="E6" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="4:23">
@@ -23913,12 +20682,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="4:23">
-      <c r="V9" s="14" t="s">
-        <v>83</v>
+      <c r="V9" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="4:23">
@@ -23926,12 +20695,12 @@
         <v>0.5</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="4:23">
-      <c r="V11" s="14" t="s">
-        <v>56</v>
+      <c r="V11" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="4:23">
@@ -23939,7 +20708,7 @@
         <f>IF($F$17=$K$14,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -23955,7 +20724,7 @@
         <v>0.5</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="4:23">
@@ -23963,11 +20732,11 @@
         <f>IF($A$20=$F$17,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>31</v>
+      <c r="E15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -23980,12 +20749,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="V18" s="14" t="s">
-        <v>56</v>
+      <c r="V18" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -23994,7 +20763,7 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -24002,8 +20771,8 @@
         <f>MAX($W$20,$F$17,$F$8,$F$32)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="14" t="s">
-        <v>84</v>
+      <c r="V20" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -24012,12 +20781,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="V22" s="14" t="s">
-        <v>82</v>
+      <c r="V22" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -24025,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -24041,12 +20810,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="V26" s="14" t="s">
-        <v>83</v>
+      <c r="V26" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -24054,13 +20823,13 @@
         <v>0.5</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="V28" s="14" t="s">
-        <v>56</v>
+      <c r="V28" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -24068,7 +20837,7 @@
         <f>IF($K$34=$P$31,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O29" s="16" t="s">
+      <c r="O29" s="15" t="s">
         <v>18</v>
       </c>
       <c r="V29" s="2"/>
@@ -24078,8 +20847,8 @@
         <f>IF($A$20=$F$32,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>36</v>
+      <c r="E30" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="V30" s="2"/>
     </row>
@@ -24092,7 +20861,7 @@
         <v>0.5</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -24104,10 +20873,10 @@
         <v>0.5</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V32" s="14" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="9:22">
@@ -24120,17 +20889,17 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="9:22">
-      <c r="V35" s="14" t="s">
-        <v>56</v>
+      <c r="V35" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="9:22">
       <c r="I36" s="2"/>
-      <c r="J36" s="15"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="9:22">
       <c r="V37" s="2"/>
@@ -24146,7 +20915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
@@ -24173,8 +20942,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:23">
-      <c r="E1" s="19" t="s">
-        <v>92</v>
+      <c r="E1" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
@@ -24188,13 +20957,13 @@
         <f>IF($F$9=$W$5,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>34</v>
+      <c r="J4" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="4:23">
-      <c r="V5" s="14" t="s">
-        <v>45</v>
+      <c r="V5" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="4:23">
@@ -24202,8 +20971,8 @@
         <f>IF($F$9=$W$7,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>33</v>
+      <c r="J6" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="4:23">
@@ -24211,11 +20980,11 @@
         <f>IF($A$22=$F$9,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>46</v>
+      <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="4:23">
@@ -24227,12 +20996,12 @@
         <v>0.5</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="4:23">
+      <c r="V10" s="13" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="4:23">
-      <c r="V10" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="4:23">
@@ -24240,8 +21009,8 @@
         <f>IF($F$9=$K$13,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>39</v>
+      <c r="J11" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="4:23">
@@ -24256,12 +21025,12 @@
         <v>0.5</v>
       </c>
       <c r="O13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="4:23">
+      <c r="V14" s="13" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="4:23">
-      <c r="V14" s="14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="4:23">
@@ -24269,12 +21038,12 @@
         <v>0.75</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="4:23">
-      <c r="V16" s="14" t="s">
-        <v>37</v>
+      <c r="V16" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -24282,8 +21051,8 @@
         <f>IF($A$22=$F$19,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>32</v>
+      <c r="E17" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -24298,12 +21067,12 @@
         <v>0.25</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="V20" s="14" t="s">
-        <v>42</v>
+      <c r="V20" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -24315,13 +21084,13 @@
         <f>IF($A$22=$W$23,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>43</v>
+      <c r="E22" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="V23" s="14" t="s">
-        <v>42</v>
+      <c r="V23" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -24329,13 +21098,13 @@
         <f>IF($K$29=$W$25,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O24" s="18" t="s">
-        <v>34</v>
+      <c r="O24" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="V25" s="14" t="s">
-        <v>45</v>
+      <c r="V25" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -24343,19 +21112,19 @@
         <f>IF($K$29=$W$27,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O26" s="18" t="s">
-        <v>33</v>
+      <c r="O26" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>0.5</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V27" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -24367,12 +21136,12 @@
         <v>0.5</v>
       </c>
       <c r="T29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="V30" s="13" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="V30" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -24380,8 +21149,8 @@
         <f>IF($K$29=$P$33,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O31" s="18" t="s">
-        <v>39</v>
+      <c r="O31" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -24389,8 +21158,8 @@
         <f>IF($A$22=$F$34,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>36</v>
+      <c r="E32" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="V32" s="2"/>
     </row>
@@ -24403,7 +21172,7 @@
         <v>0.5</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="6:22">
@@ -24411,8 +21180,8 @@
         <f>$I$27*$K$29+$I$37*$K$39</f>
         <v>0</v>
       </c>
-      <c r="V34" s="14" t="s">
-        <v>46</v>
+      <c r="V34" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="6:22">
@@ -24420,21 +21189,21 @@
         <v>0.75</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V35" s="2"/>
     </row>
     <row r="36" spans="6:22">
-      <c r="V36" s="14" t="s">
-        <v>37</v>
+      <c r="V36" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="6:22">
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <v>0.5</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="6:22">
@@ -24449,12 +21218,12 @@
         <v>0.25</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="6:22">
-      <c r="V40" s="14" t="s">
-        <v>42</v>
+      <c r="V40" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -24468,8 +21237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24491,8 +21260,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:18">
-      <c r="E1" s="19" t="s">
-        <v>93</v>
+      <c r="E1" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>0</v>
@@ -24501,32 +21270,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="4:18">
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="4:18">
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="4" spans="4:18">
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
       <c r="N4" s="3" t="str">
         <f>IF($K$10=$R$5,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="4:18">
-      <c r="Q5" s="14" t="s">
-        <v>77</v>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="4:18">
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
       <c r="N6" s="3" t="str">
         <f>IF($K$10=$R$7,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="4:18">
-      <c r="Q7" s="14" t="s">
-        <v>78</v>
+      <c r="Q7" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="4:18">
@@ -24534,8 +21322,8 @@
         <f>IF($F$16=$K$10,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>67</v>
+      <c r="J8" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="4:18">
@@ -24552,8 +21340,8 @@
       </c>
     </row>
     <row r="11" spans="4:18">
-      <c r="Q11" s="14" t="s">
-        <v>79</v>
+      <c r="Q11" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="4:18">
@@ -24562,12 +21350,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="4:18">
-      <c r="Q13" s="14" t="s">
-        <v>80</v>
+      <c r="Q13" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="4:18">
@@ -24575,8 +21363,8 @@
         <f>IF($A$25=$F$16,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>64</v>
+      <c r="E14" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="4:18">
@@ -24591,14 +21379,14 @@
         <f>IF($K$22=$R$17,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O16" s="18" t="s">
-        <v>38</v>
+      <c r="O16" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="Q17" s="14" t="s">
-        <v>77</v>
+      <c r="Q17" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -24606,13 +21394,13 @@
         <f>IF($K$22=$R$19,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O18" s="18" t="s">
-        <v>65</v>
+      <c r="O18" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="Q19" s="14" t="s">
-        <v>78</v>
+      <c r="Q19" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -24620,8 +21408,8 @@
         <f>IF($F$16=$K$22,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>66</v>
+      <c r="J20" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -24633,13 +21421,13 @@
         <f>IF($K$22=$R$23,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="Q23" s="14" t="s">
-        <v>79</v>
+      <c r="Q23" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -24651,13 +21439,13 @@
         <f>IF($K$22=$R$26,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O25" s="18" t="s">
-        <v>81</v>
+      <c r="O25" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="Q26" s="14" t="s">
-        <v>80</v>
+      <c r="Q26" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -24666,12 +21454,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="Q28" s="14" t="s">
-        <v>74</v>
+      <c r="Q28" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -24679,20 +21467,20 @@
         <f>IF($A$25=$F$31,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>71</v>
+      <c r="E29" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="I29" s="3" t="str">
         <f>IF($F$31=$R$30,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="Q30" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -24705,12 +21493,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="Q32" s="14" t="s">
-        <v>76</v>
+      <c r="Q32" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -24725,7 +21513,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24739,13 +21527,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="E2" s="19" t="s">
-        <v>92</v>
+      <c r="E2" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="E4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -24761,12 +21549,12 @@
         <f>IF($A$15=$H$12,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24779,12 +21567,12 @@
         <f>IF($A$15=$H$16,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -24798,7 +21586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AK91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -24807,22 +21595,22 @@
     <col min="2" max="2" width="2.42578125" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="2.42578125" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" customWidth="1"/>
     <col min="12" max="12" width="2.42578125" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="8" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" customWidth="1"/>
     <col min="17" max="17" width="2.42578125" customWidth="1"/>
     <col min="18" max="18" width="3.7109375" customWidth="1"/>
     <col min="19" max="19" width="4.7109375" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="10" customWidth="1"/>
     <col min="21" max="21" width="7.7109375" customWidth="1"/>
     <col min="22" max="22" width="2.42578125" customWidth="1"/>
     <col min="23" max="23" width="3.7109375" customWidth="1"/>
@@ -24841,34 +21629,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37">
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="O2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="A3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:37">
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:37">
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -24876,12 +21664,12 @@
       <c r="S7" s="2">
         <v>0.2</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="AK8" s="14" t="s">
+      <c r="AK8" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -24890,7 +21678,7 @@
         <f>IF($K$16=$P$11,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -24905,12 +21693,12 @@
       <c r="S11" s="2">
         <v>0.8</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:37">
-      <c r="AK12" s="14" t="s">
+      <c r="AK12" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -24918,7 +21706,7 @@
       <c r="S13" s="2">
         <v>0.4</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="T13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="AK13" s="2"/>
@@ -24928,10 +21716,10 @@
         <f>IF($F$27=$K$16,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AK14" s="14" t="s">
+      <c r="AK14" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -24940,7 +21728,7 @@
         <f>IF($K$16=$P$17,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -24959,12 +21747,12 @@
       <c r="S17" s="2">
         <v>0.6</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="T17" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="4:37">
-      <c r="AK18" s="14" t="s">
+      <c r="AK18" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -24973,14 +21761,14 @@
         <f>IF($K$16=$AL$20,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O19" s="10" t="s">
-        <v>44</v>
+      <c r="O19" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="S19" s="2"/>
-      <c r="T19" s="13"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="4:37">
-      <c r="AK20" s="14" t="s">
+      <c r="AK20" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -24988,13 +21776,13 @@
       <c r="S21" s="2">
         <v>0.1</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="T21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="AK21" s="2"/>
     </row>
     <row r="22" spans="4:37">
-      <c r="AK22" s="14" t="s">
+      <c r="AK22" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25003,7 +21791,7 @@
         <f>IF($K$37=$P$25,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O23" s="10" t="s">
+      <c r="O23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="X23" s="2">
@@ -25015,7 +21803,7 @@
       <c r="AK23" s="2"/>
     </row>
     <row r="24" spans="4:37">
-      <c r="AK24" s="14" t="s">
+      <c r="AK24" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25024,7 +21812,7 @@
         <f>IF($A$48=$F$27,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P25">
@@ -25034,7 +21822,7 @@
       <c r="S25" s="2">
         <v>0.9</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="T25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AH25" s="2">
@@ -25046,7 +21834,7 @@
       <c r="AK25" s="2"/>
     </row>
     <row r="26" spans="4:37">
-      <c r="AK26" s="14" t="s">
+      <c r="AK26" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -25090,7 +21878,7 @@
       <c r="Y30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AK30" s="14" t="s">
+      <c r="AK30" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -25108,7 +21896,7 @@
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="AK33" s="14" t="s">
+      <c r="AK33" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -25116,7 +21904,7 @@
       <c r="S34" s="2">
         <v>0.25</v>
       </c>
-      <c r="T34" s="12" t="s">
+      <c r="T34" s="11" t="s">
         <v>3</v>
       </c>
       <c r="AK34" s="2"/>
@@ -25126,10 +21914,10 @@
         <f>IF($F$27=$K$37,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AK35" s="14" t="s">
+      <c r="AK35" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25142,7 +21930,7 @@
         <f>IF($K$37=$P$39,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O37" s="10" t="s">
+      <c r="O37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="X37" s="2">
@@ -25154,7 +21942,7 @@
       <c r="AK37" s="2"/>
     </row>
     <row r="38" spans="1:37">
-      <c r="AK38" s="14" t="s">
+      <c r="AK38" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25166,7 +21954,7 @@
       <c r="S39" s="2">
         <v>0.75</v>
       </c>
-      <c r="T39" s="12" t="s">
+      <c r="T39" s="11" t="s">
         <v>11</v>
       </c>
       <c r="X39" s="2">
@@ -25177,7 +21965,7 @@
       </c>
     </row>
     <row r="40" spans="1:37">
-      <c r="AK40" s="14" t="s">
+      <c r="AK40" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -25194,7 +21982,7 @@
       </c>
     </row>
     <row r="42" spans="1:37">
-      <c r="AK42" s="14" t="s">
+      <c r="AK42" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -25202,12 +21990,12 @@
       <c r="S43" s="2">
         <v>0.4</v>
       </c>
-      <c r="T43" s="12" t="s">
+      <c r="T43" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:37">
-      <c r="AK44" s="14" t="s">
+      <c r="AK44" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25216,7 +22004,7 @@
         <f>IF($K$37=$P$47,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O45" s="10" t="s">
+      <c r="O45" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -25231,7 +22019,7 @@
       <c r="S47" s="2">
         <v>0.6</v>
       </c>
-      <c r="T47" s="12" t="s">
+      <c r="T47" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25240,7 +22028,7 @@
         <f>MAX($F$27,$F$69)</f>
         <v>0</v>
       </c>
-      <c r="AK48" s="14" t="s">
+      <c r="AK48" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25248,12 +22036,12 @@
       <c r="S49" s="2">
         <v>0.2</v>
       </c>
-      <c r="T49" s="12" t="s">
+      <c r="T49" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="9:37">
-      <c r="AK50" s="14" t="s">
+      <c r="AK50" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25262,7 +22050,7 @@
         <f>IF($K$59=$P$53,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O51" s="10" t="s">
+      <c r="O51" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -25277,12 +22065,12 @@
       <c r="S53" s="2">
         <v>0.8</v>
       </c>
-      <c r="T53" s="12" t="s">
+      <c r="T53" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="9:37">
-      <c r="AK54" s="14" t="s">
+      <c r="AK54" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25290,13 +22078,13 @@
       <c r="S55" s="2">
         <v>0.5</v>
       </c>
-      <c r="T55" s="12" t="s">
+      <c r="T55" s="11" t="s">
         <v>3</v>
       </c>
       <c r="AK55" s="2"/>
     </row>
     <row r="56" spans="9:37">
-      <c r="AK56" s="14" t="s">
+      <c r="AK56" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25305,14 +22093,14 @@
         <f>IF($F$69=$K$59,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J57" s="20" t="s">
+      <c r="J57" s="19" t="s">
         <v>12</v>
       </c>
       <c r="N57" s="3" t="str">
         <f>IF($K$59=$P$59,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O57" s="10" t="s">
+      <c r="O57" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -25331,12 +22119,12 @@
       <c r="S59" s="2">
         <v>0.5</v>
       </c>
-      <c r="T59" s="12" t="s">
+      <c r="T59" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="9:37">
-      <c r="AK60" s="14" t="s">
+      <c r="AK60" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25348,15 +22136,15 @@
         <f>IF($K$59=$P$65,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O63" s="10" t="s">
+      <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T63" s="12" t="s">
+      <c r="T63" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="9:37">
-      <c r="AK64" s="14" t="s">
+      <c r="AK64" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25366,7 +22154,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="2"/>
-      <c r="T65" s="13"/>
+      <c r="T65" s="12"/>
     </row>
     <row r="66" spans="4:37">
       <c r="AK66" s="2"/>
@@ -25376,19 +22164,19 @@
         <f>IF($A$48=$F$69,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>11</v>
       </c>
       <c r="S67" s="2">
         <v>0.2</v>
       </c>
-      <c r="T67" s="12" t="s">
+      <c r="T67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AK67" s="2"/>
     </row>
     <row r="68" spans="4:37">
-      <c r="AK68" s="14" t="s">
+      <c r="AK68" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25401,7 +22189,7 @@
         <f>IF($K$80=$P$71,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O69" s="10" t="s">
+      <c r="O69" s="9" t="s">
         <v>16</v>
       </c>
       <c r="AK69" s="2"/>
@@ -25420,7 +22208,7 @@
         <f>$S$67*$AL$68+$S$72*$U$74</f>
         <v>0</v>
       </c>
-      <c r="AK71" s="14" t="s">
+      <c r="AK71" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25428,7 +22216,7 @@
       <c r="S72" s="2">
         <v>0.8</v>
       </c>
-      <c r="T72" s="12" t="s">
+      <c r="T72" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -25448,7 +22236,7 @@
       </c>
     </row>
     <row r="75" spans="4:37">
-      <c r="AK75" s="14" t="s">
+      <c r="AK75" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -25456,13 +22244,13 @@
       <c r="S76" s="2">
         <v>0.4</v>
       </c>
-      <c r="T76" s="12" t="s">
+      <c r="T76" s="11" t="s">
         <v>3</v>
       </c>
       <c r="AK76" s="2"/>
     </row>
     <row r="77" spans="4:37">
-      <c r="AK77" s="14" t="s">
+      <c r="AK77" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25471,7 +22259,7 @@
         <f>IF($F$69=$K$80,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="J78" s="20" t="s">
+      <c r="J78" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -25480,7 +22268,7 @@
         <f>IF($K$80=$P$81,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O79" s="10" t="s">
+      <c r="O79" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AK79" s="2"/>
@@ -25503,7 +22291,7 @@
         <f>$S$76*$AL$77+$S$82*$U$84</f>
         <v>0</v>
       </c>
-      <c r="AK81" s="14" t="s">
+      <c r="AK81" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25511,7 +22299,7 @@
       <c r="S82" s="2">
         <v>0.6</v>
       </c>
-      <c r="T82" s="12" t="s">
+      <c r="T82" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -25531,7 +22319,7 @@
       </c>
     </row>
     <row r="85" spans="14:37">
-      <c r="AK85" s="14" t="s">
+      <c r="AK85" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -25539,12 +22327,12 @@
       <c r="S86" s="2">
         <v>0.7</v>
       </c>
-      <c r="T86" s="12" t="s">
+      <c r="T86" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="14:37">
-      <c r="AK87" s="14" t="s">
+      <c r="AK87" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25553,7 +22341,7 @@
         <f>IF($K$80=$P$90,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="O88" s="10" t="s">
+      <c r="O88" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -25568,12 +22356,12 @@
       <c r="S90" s="2">
         <v>0.3</v>
       </c>
-      <c r="T90" s="12" t="s">
+      <c r="T90" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="14:37">
-      <c r="AK91" s="14" t="s">
+      <c r="AK91" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25607,8 +22395,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="19" t="s">
-        <v>92</v>
+      <c r="A2" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>0</v>
@@ -25623,12 +22411,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="L6" s="14" t="s">
-        <v>51</v>
+      <c r="L6" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -25636,8 +22424,8 @@
         <f>IF($A$27=$F$9,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>47</v>
+      <c r="E7" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -25653,11 +22441,11 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25667,12 +22455,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="L14" s="14" t="s">
-        <v>51</v>
+      <c r="L14" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -25680,8 +22468,8 @@
         <f>IF($A$27=$F$17,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>40</v>
+      <c r="E15" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -25697,11 +22485,11 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25711,12 +22499,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="L22" s="14" t="s">
-        <v>51</v>
+      <c r="L22" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -25724,8 +22512,8 @@
         <f>IF($A$27=$F$25,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>41</v>
+      <c r="E23" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -25741,11 +22529,11 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25761,12 +22549,12 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="L30" s="14" t="s">
-        <v>51</v>
+      <c r="L30" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -25774,8 +22562,8 @@
         <f>IF($A$27=$F$33,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>52</v>
+      <c r="E31" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -25791,11 +22579,11 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="4:12">
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25804,12 +22592,12 @@
         <v>0.25</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="4:12">
-      <c r="L38" s="14" t="s">
-        <v>51</v>
+      <c r="L38" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="4:12">
@@ -25820,12 +22608,12 @@
         <v>0.25</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="4:12">
-      <c r="L42" s="14" t="s">
-        <v>51</v>
+      <c r="L42" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="4:12">
@@ -25833,8 +22621,8 @@
         <f>IF($A$27=$F$45,"&gt;&gt;&gt;","")</f>
         <v>&gt;&gt;&gt;</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>48</v>
+      <c r="E43" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="4:12">
@@ -25846,12 +22634,12 @@
         <v>0.25</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="4:12">
-      <c r="L46" s="14" t="s">
-        <v>51</v>
+      <c r="L46" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="9:12">
@@ -25859,339 +22647,16 @@
         <v>0.25</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="9:12">
-      <c r="L50" s="14" t="s">
-        <v>51</v>
+      <c r="L50" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:W44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.42578125" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" customWidth="1"/>
-    <col min="15" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="2.42578125" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="9:23">
-      <c r="V6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="9:23">
-      <c r="S9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="9:23">
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="9:23">
-      <c r="N11" s="4" t="str">
-        <f>IF($K$16=$P$13,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="9:23">
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="9:23">
-      <c r="P13">
-        <f>$S$9*$W$10+$S$13*$W$14</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="9:23">
-      <c r="I14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="9:23">
-      <c r="K16">
-        <f>MAX($W$17,$P$13)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4" t="str">
-        <f>IF($K$16=$W$17,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="D18" s="3" t="str">
-        <f>IF($A$29=$F$20,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="F20">
-        <f>$I$22*$K$24+$I$14*$K$16</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="4" t="str">
-        <f>IF($K$24=$W$21,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="I22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="K24">
-        <f>MAX($W$21,$W$25)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="4" t="str">
-        <f>IF($K$24=$W$25,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="D26" s="3" t="str">
-        <f>IF($A$29=$W$27,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="V27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="S28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29">
-        <f>MAX($W$27,$F$20,$F$39)</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="N30" s="3" t="str">
-        <f>IF($K$35=$P$32,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="P32">
-        <f>$S$28*$W$29+$S$32*$W$33</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="4:22">
-      <c r="I33" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:22">
-      <c r="K35">
-        <f>MAX($W$36,$P$32)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="str">
-        <f>IF($K$35=$W$36,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="4:22">
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:22">
-      <c r="D37" s="3" t="str">
-        <f>IF($A$29=$F$39,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N37" s="3" t="str">
-        <f>IF($K$41=$W$38,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="4:22">
-      <c r="V38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:22">
-      <c r="F39">
-        <f>$I$43*$W$44+$I$33*$K$35+$I$39*$K$41</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="4:22">
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="4:22">
-      <c r="K41">
-        <f>MAX($W$38,$W$42)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="str">
-        <f>IF($K$41=$W$42,"&gt;&gt;&gt;","")</f>
-        <v>&gt;&gt;&gt;</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="4:22">
-      <c r="V42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:22">
-      <c r="I43" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="4:22">
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>